--- a/assets/disciplinas/LOT2005.xlsx
+++ b/assets/disciplinas/LOT2005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Desenvolver o aprendizado teórico e prático da bioquímica através da execução de práticas de laboratório bioquímico.</t>
+    <t>427823 - Adriane Maria Ferreira Milagres</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>427823 - Adriane Maria Ferreira Milagres</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Soluções tampão, aminoácidos (reação com ninhidrina, varredura de espectro e curva de titulação), cromatografia em papel de aminoácidos e açúcares, proteínas (separação e caracterização), enzimas (efeito do tempo e da temperatura; concentração de substrato e inibição), dosagem de glicídios redutores e caracterização do amido.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -95,16 +92,6 @@
   </si>
   <si>
     <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Soluções tampão: curvas de titulação obtidas a partir de observações experimentais ou pelo uso da Equação de Henderson- Hasselbalch.
-2. Aminoácidos: reação com ninhidrina e curva de titulação; reações para alfa-aminoácidos com ninhidrina; propriedades anfotéricas de aminoácidos e curvas de titulação; determinação de pK e PI; titulação em presença de formaldeído e efeito sobre os pKs.
-3. Varredura de espectro: escolha do comprimento de onda ideal para dosagens fotométricas; relação absorbância e concentração; varredura de espectro de aminoácidos.
-4 Cromatografia em papel de aminoácidos e açúcares: fundamentos físico, análise das fases envolvidas, escolha do solvente, solubilidade relativa dos componentes da amostra entre as duas fases, determinação de Rf; mecanismo da cromatografia em papel e cromatografia mono e bidimensional; adequação do uso, vantagens de cada tipo, fundamento químico das revelações de aminoácidos e proteínas.
-5. Proteínas : separação e caracterização; dosagem e curva de proteína pelo método de Biureto; fundamento químico; obtenção da curva e aplicação prática da curva; determinação da solubilidade de proteínas em função do pH e da força iônica.
-6. Enzimas: efeito do tempo e da temperatura.
-7. Mecanismo da ação enzimática: produtos de reação e influência do tempo, curva de progresso, traçado e análise da curva, conceito de velocidade inicial, influência da temperatura, aplicação da equação de Arrhenius, conceito de energia de ativação (traçado e análise da curva).
-8. Enzimas: concentração de substrato e inibição; influência da concentração de substrato: constante de Michaelis, determinação prática, relação Km versus afinidade enzima substrato; influência de inibidor competitivo na cinética enzimática; caracterização prática da inibição competitiva e determinação da constante de inibição. 9. Dosagem de glicídios redutores e caracterização do amido: dosagem e curva padrão de glicídeos redutores pelo método do ácido 3,5-dinitro salicílico; reação de amido com iodo.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -127,29 +114,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A Avaliação será realizada por meio de testes (T), relatórios ( R ) e 1 prova escrita ( E ) .</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média final será calculada segundo a equação abaixo : Média final = 0,5 (T + R )+ 0,5 P</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculada pela equação: MF = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. VOET, D., VOET, J. G., PRATT, C.W. Fundamentos de Bioquímica, Porto Alegre: Editora Artmed, 2000.
-2. LEHNINGER, A.L.; NELSON, O.L.; COX, M.M. Princípios de bioquímica, 5 ed. Porto Alegre: Artmed editora, 2011.
-3. COHN, E.E., STUMPF, P.K. Introdução à Bioquímica, São Paulo: Editora Edgard Blucher Ltda, 1963.
-4. SEGEL, I.H. Bioquímica Teoria e Problemas, São Paulo: Livros técnicos e Científicos Editora S.A, 1979.
-5. ARAÚJO, J.M. Química de Alimentos - Teoria e Prática, Viçosa: Editora UFV, 2004</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -512,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,34 +617,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -678,77 +661,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2005.xlsx
+++ b/assets/disciplinas/LOT2005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Desenvolver o aprendizado teórico e prático da bioquímica através da execução de práticas de laboratório bioquímico.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>427823 - Adriane Maria Ferreira Milagres</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Soluções tampão, aminoácidos (reação com ninhidrina, varredura de espectro e curva de titulação), cromatografia em papel de aminoácidos e açúcares, proteínas (separação e caracterização), enzimas (efeito do tempo e da temperatura; concentração de substrato e inibição), dosagem de glicídios redutores e caracterização do amido.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -92,6 +95,16 @@
   </si>
   <si>
     <t>Programa:</t>
+  </si>
+  <si>
+    <t>1. Soluções tampão: curvas de titulação obtidas a partir de observações experimentais ou pelo uso da Equação de Henderson- Hasselbalch.
+2. Aminoácidos: reação com ninhidrina e curva de titulação; reações para alfa-aminoácidos com ninhidrina; propriedades anfotéricas de aminoácidos e curvas de titulação; determinação de pK e PI; titulação em presença de formaldeído e efeito sobre os pKs.
+3. Varredura de espectro: escolha do comprimento de onda ideal para dosagens fotométricas; relação absorbância e concentração; varredura de espectro de aminoácidos.
+4 Cromatografia em papel de aminoácidos e açúcares: fundamentos físico, análise das fases envolvidas, escolha do solvente, solubilidade relativa dos componentes da amostra entre as duas fases, determinação de Rf; mecanismo da cromatografia em papel e cromatografia mono e bidimensional; adequação do uso, vantagens de cada tipo, fundamento químico das revelações de aminoácidos e proteínas.
+5. Proteínas : separação e caracterização; dosagem e curva de proteína pelo método de Biureto; fundamento químico; obtenção da curva e aplicação prática da curva; determinação da solubilidade de proteínas em função do pH e da força iônica.
+6. Enzimas: efeito do tempo e da temperatura.
+7. Mecanismo da ação enzimática: produtos de reação e influência do tempo, curva de progresso, traçado e análise da curva, conceito de velocidade inicial, influência da temperatura, aplicação da equação de Arrhenius, conceito de energia de ativação (traçado e análise da curva).
+8. Enzimas: concentração de substrato e inibição; influência da concentração de substrato: constante de Michaelis, determinação prática, relação Km versus afinidade enzima substrato; influência de inibidor competitivo na cinética enzimática; caracterização prática da inibição competitiva e determinação da constante de inibição. 9. Dosagem de glicídios redutores e caracterização do amido: dosagem e curva padrão de glicídeos redutores pelo método do ácido 3,5-dinitro salicílico; reação de amido com iodo.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -114,22 +127,29 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A Avaliação será realizada por meio de testes (T), relatórios ( R ) e 1 prova escrita ( E ) .</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A Avaliação será realizada por meio de testes (T), relatórios ( R ) e 1 prova escrita ( E ) .</t>
+    <t>A média final será calculada segundo a equação abaixo : Média final = 0,5 (T + R )+ 0,5 P</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A média final será calculada segundo a equação abaixo : Média final = 0,5 (T + R )+ 0,5 P</t>
+    <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculada pela equação: MF = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculada pela equação: MF = (NF + PR)/2.</t>
+    <t>1. VOET, D., VOET, J. G., PRATT, C.W. Fundamentos de Bioquímica, Porto Alegre: Editora Artmed, 2000.
+2. LEHNINGER, A.L.; NELSON, O.L.; COX, M.M. Princípios de bioquímica, 5 ed. Porto Alegre: Artmed editora, 2011.
+3. COHN, E.E., STUMPF, P.K. Introdução à Bioquímica, São Paulo: Editora Edgard Blucher Ltda, 1963.
+4. SEGEL, I.H. Bioquímica Teoria e Problemas, São Paulo: Livros técnicos e Científicos Editora S.A, 1979.
+5. ARAÚJO, J.M. Química de Alimentos - Teoria e Prática, Viçosa: Editora UFV, 2004</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -492,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -617,37 +637,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,66 +678,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
